--- a/Bases de Dados/Emails.xlsx
+++ b/Bases de Dados/Emails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa1\OneDrive\Documentos\GitHub\roliveira-9\Projeto Automação  de Indicadores\Bases de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa1\OneDrive\Documentos\Python Impressionador\Projeto Automção  de Indicadores\Bases de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7178B9F-6A68-479C-9B7E-BD9AA2A202BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6E0D2A-411A-4AC8-998A-7647F89A1B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE9D8D8A-F7B1-481B-B9DF-10FF6CFE8B3E}"/>
   </bookViews>
@@ -198,82 +198,82 @@
     <t>Theo</t>
   </si>
   <si>
-    <t>helena@gmail.com</t>
-  </si>
-  <si>
-    <t>alice@gmail.com</t>
-  </si>
-  <si>
-    <t>laura@gmail.com</t>
-  </si>
-  <si>
-    <t>manuela@gmail.com</t>
-  </si>
-  <si>
-    <t>valentina@gmail.com</t>
-  </si>
-  <si>
-    <t>sophia@gmail.com</t>
-  </si>
-  <si>
-    <t>isabella@gmail.com</t>
-  </si>
-  <si>
-    <t>heloisa@gmail.com</t>
-  </si>
-  <si>
-    <t>luiza@gmail.com</t>
-  </si>
-  <si>
-    <t>julia@gmail.com</t>
-  </si>
-  <si>
-    <t>lorena@gmail.com</t>
-  </si>
-  <si>
-    <t>livia@gmail.com</t>
-  </si>
-  <si>
-    <t>maria luiza@gmail.com</t>
-  </si>
-  <si>
-    <t>cecilia@gmail.com</t>
-  </si>
-  <si>
-    <t>eloa@gmail.com</t>
-  </si>
-  <si>
-    <t>miguel@gmail.com</t>
-  </si>
-  <si>
-    <t>arthur@gmail.com</t>
-  </si>
-  <si>
-    <t>heitor@gmail.com</t>
-  </si>
-  <si>
-    <t>bernardo@gmail.com</t>
-  </si>
-  <si>
-    <t>davi@gmail.com</t>
-  </si>
-  <si>
-    <t>theo@gmail.com</t>
-  </si>
-  <si>
-    <t>lorenzo@gmail.com</t>
-  </si>
-  <si>
-    <t>gabriel@gmail.com</t>
-  </si>
-  <si>
-    <t>pedro@gmail.com</t>
-  </si>
-  <si>
-    <t>benjamin@gmail.com</t>
-  </si>
-  <si>
-    <t>diretoria@gmail.com</t>
+    <t>rafa.r.oliveira.rrdo+helena@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+alice@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+laura@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+manuela@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+valentina@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+sophia@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+isabella@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+heloisa@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+luiza@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+julia@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+lorena@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+livia@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+maria_luiza@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+cecilia@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+eloa@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+miguel@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+arthur@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+heitor@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+bernardo@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+davi@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+theo@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+lorenzo@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+gabriel@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+pedro@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+benjamin@gmail.com</t>
+  </si>
+  <si>
+    <t>rafa.r.oliveira.rrdo+diretoria@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -639,13 +639,13 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C27"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,31 +949,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{437319F6-F6E4-4798-8035-D3A44E8469F8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E26D788C-A087-48D2-9556-9071DEE609BC}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{D0748D43-7019-4C1B-AC0D-B1DC651537F4}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{C3977E1E-FD69-48C5-9EDC-870ECBEAB85E}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{69A622CA-37D7-4501-B129-BD12707472EA}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{18AFE0DA-551F-4433-8B09-492447007A36}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{F501D187-DF16-4A7D-AE20-37FA0F9DE812}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{A1361A6D-1E27-4147-A4D2-8982BE78764B}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{6CF75E2C-828B-4D01-8551-D77949261F03}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{492B0195-6148-49EC-B0D5-89CC423DE18A}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{E0C687A6-E52F-4883-A6E7-206587C4FDC0}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{27C45C1E-2BE5-4D54-84E0-E45A7A5183D7}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{B3C6094D-37D4-4FDD-99E7-86FA8ED7BD46}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{0741FB6A-4B09-45C2-8B5B-AB7B5F89813E}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{1C001448-4F76-4D1C-8628-BF56DC5A0840}"/>
-    <hyperlink ref="C18" r:id="rId16" xr:uid="{9DB073D1-ED91-4E79-9874-FB13F96B9A6E}"/>
-    <hyperlink ref="C19" r:id="rId17" xr:uid="{B16B4873-14CE-41D4-9EBA-5C8379460595}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{773FC492-31C3-47C7-B01D-07C2B49E710A}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{845F5802-62B6-4F9E-B92B-C7969FA4FA65}"/>
-    <hyperlink ref="C22" r:id="rId20" xr:uid="{0E5E9F7D-4560-408B-9B6B-A26B5E960C90}"/>
-    <hyperlink ref="C23" r:id="rId21" xr:uid="{A9EA04AA-BAA6-4EA1-B89D-9EE51D79BE47}"/>
-    <hyperlink ref="C24" r:id="rId22" xr:uid="{C11FC6A4-91BA-4215-9A6E-540566ECE66D}"/>
-    <hyperlink ref="C25" r:id="rId23" xr:uid="{19C707BD-96AE-41F8-A73D-E33B1F3125D9}"/>
-    <hyperlink ref="C26" r:id="rId24" xr:uid="{16E3F79C-3D55-4ABD-9936-DED619AE2648}"/>
-    <hyperlink ref="C27" r:id="rId25" xr:uid="{C95B8545-C65D-43E3-9C53-B6A56DD75A0C}"/>
+    <hyperlink ref="C2" r:id="rId1" display="pythonimpressionador+helena@gmail.com" xr:uid="{71E13B65-9239-473E-B00B-24152BE46E62}"/>
+    <hyperlink ref="C3" r:id="rId2" display="pythonimpressionador+alice@gmail.com" xr:uid="{E3106FEB-106F-4653-B503-E2D2031143F8}"/>
+    <hyperlink ref="C4" r:id="rId3" display="pythonimpressionador+laura@gmail.com" xr:uid="{B6EBA633-9A57-4B4B-96B4-C65CFAD1BB3E}"/>
+    <hyperlink ref="C5" r:id="rId4" display="pythonimpressionador+manuela@gmail.com" xr:uid="{7823E53E-AF09-484D-A82D-90E56D3B173C}"/>
+    <hyperlink ref="C6" r:id="rId5" display="pythonimpressionador+valentina@gmail.com" xr:uid="{3741F77C-FA16-4C22-B015-4FDF829B5647}"/>
+    <hyperlink ref="C7" r:id="rId6" display="pythonimpressionador+sophia@gmail.com" xr:uid="{E0868D17-25A2-487B-AA15-484F6B02EBA7}"/>
+    <hyperlink ref="C8" r:id="rId7" display="pythonimpressionador+isabella@gmail.com" xr:uid="{B6F8659F-A0CB-412D-AE6A-9DA852BFAA32}"/>
+    <hyperlink ref="C9" r:id="rId8" display="pythonimpressionador+heloisa@gmail.com" xr:uid="{4CFCBEB2-A644-4E59-9788-1DDF09FAF464}"/>
+    <hyperlink ref="C10" r:id="rId9" display="pythonimpressionador+luiza@gmail.com" xr:uid="{38F81A3D-BB76-4DBF-B55C-183FC4B858A7}"/>
+    <hyperlink ref="C11" r:id="rId10" display="pythonimpressionador+julia@gmail.com" xr:uid="{98973E91-31EC-40FD-86B0-ED8A4168C6E8}"/>
+    <hyperlink ref="C12" r:id="rId11" display="pythonimpressionador+lorena@gmail.com" xr:uid="{03A322C5-0A08-4680-8550-E77955A4AE16}"/>
+    <hyperlink ref="C13" r:id="rId12" display="pythonimpressionador+livia@gmail.com" xr:uid="{E5CB0419-824E-4DB2-A37A-D3C4C77E1115}"/>
+    <hyperlink ref="C15" r:id="rId13" display="pythonimpressionador+cecilia@gmail.com" xr:uid="{59E0BF81-A494-4E83-8798-A91BEBA8D604}"/>
+    <hyperlink ref="C16" r:id="rId14" display="pythonimpressionador+eloa@gmail.com" xr:uid="{ACE724F6-B50F-4C54-BEB0-05F796CEB518}"/>
+    <hyperlink ref="C17" r:id="rId15" display="pythonimpressionador+miguel@gmail.com" xr:uid="{97ADDF58-A02A-4AB6-92C6-A696B385AA7C}"/>
+    <hyperlink ref="C18" r:id="rId16" display="pythonimpressionador+arthur@gmail.com" xr:uid="{468AA824-B854-4C50-AE64-62AB564D2BC8}"/>
+    <hyperlink ref="C19" r:id="rId17" display="pythonimpressionador+heitor@gmail.com" xr:uid="{D68730A0-9B08-47EA-B08B-D9AF34A604C6}"/>
+    <hyperlink ref="C20" r:id="rId18" display="pythonimpressionador+bernardo@gmail.com" xr:uid="{DC9B9350-B3A1-42F7-AC7F-FA19215DAC1C}"/>
+    <hyperlink ref="C21" r:id="rId19" display="pythonimpressionador+davi@gmail.com" xr:uid="{2B72A44B-E3AB-4DC9-843D-E086A5935BBD}"/>
+    <hyperlink ref="C22" r:id="rId20" display="pythonimpressionador+theo@gmail.com" xr:uid="{86DE27C8-7A8B-4539-BDDF-78A25128E590}"/>
+    <hyperlink ref="C23" r:id="rId21" display="pythonimpressionador+lorenzo@gmail.com" xr:uid="{DA1C7256-28A5-4CC6-B93E-1D00A4600C54}"/>
+    <hyperlink ref="C24" r:id="rId22" display="pythonimpressionador+gabriel@gmail.com" xr:uid="{4218CF6B-06BF-4E28-B5ED-DB65662FB86F}"/>
+    <hyperlink ref="C25" r:id="rId23" display="pythonimpressionador+pedro@gmail.com" xr:uid="{AFD4FC21-C827-47BB-A10B-8F182A528B87}"/>
+    <hyperlink ref="C26" r:id="rId24" display="pythonimpressionador+benjamin@gmail.com" xr:uid="{A077F048-53D0-4C90-9D38-4531C608CEEB}"/>
+    <hyperlink ref="C27" r:id="rId25" display="pythonimpressionador+diretoria@gmail.com" xr:uid="{9146DF61-FD66-4AC6-8767-2D00EC98E736}"/>
+    <hyperlink ref="C14" r:id="rId26" display="pythonimpressionador+maria_luiza@gmail.com" xr:uid="{5FFD0C79-EDBB-417E-98DA-5E77D27BBC40}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
